--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi4-Adam11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi4-Adam11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Lgi4</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06754433333333333</v>
+        <v>0.070204</v>
       </c>
       <c r="H2">
-        <v>0.202633</v>
+        <v>0.210612</v>
       </c>
       <c r="I2">
-        <v>0.02266275549884949</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="J2">
-        <v>0.02266275549884949</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1152986666666667</v>
+        <v>0.075142</v>
       </c>
       <c r="N2">
-        <v>0.345896</v>
+        <v>0.225426</v>
       </c>
       <c r="O2">
-        <v>0.1156688842087241</v>
+        <v>0.05097354113547087</v>
       </c>
       <c r="P2">
-        <v>0.1156688842087241</v>
+        <v>0.05097354113547086</v>
       </c>
       <c r="Q2">
-        <v>0.007787771574222222</v>
+        <v>0.005275268968</v>
       </c>
       <c r="R2">
-        <v>0.07008994416799999</v>
+        <v>0.04747742071199999</v>
       </c>
       <c r="S2">
-        <v>0.002621375641647045</v>
+        <v>0.001247851196374948</v>
       </c>
       <c r="T2">
-        <v>0.002621375641647045</v>
+        <v>0.001247851196374948</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06754433333333333</v>
+        <v>0.070204</v>
       </c>
       <c r="H3">
-        <v>0.202633</v>
+        <v>0.210612</v>
       </c>
       <c r="I3">
-        <v>0.02266275549884949</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="J3">
-        <v>0.02266275549884949</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +626,22 @@
         <v>1.502253</v>
       </c>
       <c r="O3">
-        <v>0.5023588833325865</v>
+        <v>0.3396908745725183</v>
       </c>
       <c r="P3">
-        <v>0.5023588833325865</v>
+        <v>0.3396908745725183</v>
       </c>
       <c r="Q3">
-        <v>0.033822892461</v>
+        <v>0.035154723204</v>
       </c>
       <c r="R3">
-        <v>0.304406032149</v>
+        <v>0.316392508836</v>
       </c>
       <c r="S3">
-        <v>0.01138483654564146</v>
+        <v>0.008315758622820151</v>
       </c>
       <c r="T3">
-        <v>0.01138483654564146</v>
+        <v>0.008315758622820151</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -658,170 +664,170 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06754433333333333</v>
+        <v>0.070204</v>
       </c>
       <c r="H4">
-        <v>0.202633</v>
+        <v>0.210612</v>
       </c>
       <c r="I4">
-        <v>0.02266275549884949</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="J4">
-        <v>0.02266275549884949</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3807496666666667</v>
+        <v>0.4588233333333334</v>
       </c>
       <c r="N4">
-        <v>1.142249</v>
+        <v>1.37647</v>
       </c>
       <c r="O4">
-        <v>0.3819722324586895</v>
+        <v>0.3112487031963553</v>
       </c>
       <c r="P4">
-        <v>0.3819722324586895</v>
+        <v>0.3112487031963553</v>
       </c>
       <c r="Q4">
-        <v>0.02571748240188889</v>
+        <v>0.03221123329333334</v>
       </c>
       <c r="R4">
-        <v>0.231457341617</v>
+        <v>0.28990109964</v>
       </c>
       <c r="S4">
-        <v>0.008656543311560979</v>
+        <v>0.007619483716493329</v>
       </c>
       <c r="T4">
-        <v>0.008656543311560979</v>
+        <v>0.007619483716493329</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.070204</v>
+      </c>
+      <c r="H5">
+        <v>0.210612</v>
+      </c>
+      <c r="I5">
+        <v>0.02448037096458673</v>
+      </c>
+      <c r="J5">
+        <v>0.02448037096458673</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.302381666666667</v>
-      </c>
-      <c r="H5">
-        <v>6.907145</v>
-      </c>
-      <c r="I5">
-        <v>0.7725046677002302</v>
-      </c>
-      <c r="J5">
-        <v>0.7725046677002302</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1152986666666667</v>
+        <v>0.4048450000000001</v>
       </c>
       <c r="N5">
-        <v>0.345896</v>
+        <v>1.214535</v>
       </c>
       <c r="O5">
-        <v>0.1156688842087241</v>
+        <v>0.2746318072581207</v>
       </c>
       <c r="P5">
-        <v>0.1156688842087241</v>
+        <v>0.2746318072581207</v>
       </c>
       <c r="Q5">
-        <v>0.2654615363244445</v>
+        <v>0.02842173838000001</v>
       </c>
       <c r="R5">
-        <v>2.38915382692</v>
+        <v>0.25579564542</v>
       </c>
       <c r="S5">
-        <v>0.08935475295891677</v>
+        <v>0.006723088520353677</v>
       </c>
       <c r="T5">
-        <v>0.08935475295891677</v>
+        <v>0.006723088520353677</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.302381666666667</v>
+        <v>0.070204</v>
       </c>
       <c r="H6">
-        <v>6.907145</v>
+        <v>0.210612</v>
       </c>
       <c r="I6">
-        <v>0.7725046677002302</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="J6">
-        <v>0.7725046677002302</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.5007510000000001</v>
+        <v>0.034576</v>
       </c>
       <c r="N6">
-        <v>1.502253</v>
+        <v>0.103728</v>
       </c>
       <c r="O6">
-        <v>0.5023588833325865</v>
+        <v>0.02345507383753481</v>
       </c>
       <c r="P6">
-        <v>0.5023588833325865</v>
+        <v>0.02345507383753481</v>
       </c>
       <c r="Q6">
-        <v>1.152919921965</v>
+        <v>0.002427373504</v>
       </c>
       <c r="R6">
-        <v>10.376279297685</v>
+        <v>0.021846361536</v>
       </c>
       <c r="S6">
-        <v>0.3880745822350984</v>
+        <v>0.0005741889085446251</v>
       </c>
       <c r="T6">
-        <v>0.3880745822350984</v>
+        <v>0.0005741889085446251</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,54 +856,54 @@
         <v>6.907145</v>
       </c>
       <c r="I7">
-        <v>0.7725046677002302</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="J7">
-        <v>0.7725046677002302</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.3807496666666667</v>
+        <v>0.075142</v>
       </c>
       <c r="N7">
-        <v>1.142249</v>
+        <v>0.225426</v>
       </c>
       <c r="O7">
-        <v>0.3819722324586895</v>
+        <v>0.05097354113547087</v>
       </c>
       <c r="P7">
-        <v>0.3819722324586895</v>
+        <v>0.05097354113547086</v>
       </c>
       <c r="Q7">
-        <v>0.8766310521227779</v>
+        <v>0.1730055631966667</v>
       </c>
       <c r="R7">
-        <v>7.889679469105</v>
+        <v>1.55705006877</v>
       </c>
       <c r="S7">
-        <v>0.295075332506215</v>
+        <v>0.04092401739589978</v>
       </c>
       <c r="T7">
-        <v>0.295075332506215</v>
+        <v>0.04092401739589977</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -906,60 +912,60 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6104853333333333</v>
+        <v>2.302381666666667</v>
       </c>
       <c r="H8">
-        <v>1.831456</v>
+        <v>6.907145</v>
       </c>
       <c r="I8">
-        <v>0.2048325768009203</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="J8">
-        <v>0.2048325768009203</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1152986666666667</v>
+        <v>0.5007510000000001</v>
       </c>
       <c r="N8">
-        <v>0.345896</v>
+        <v>1.502253</v>
       </c>
       <c r="O8">
-        <v>0.1156688842087241</v>
+        <v>0.3396908745725183</v>
       </c>
       <c r="P8">
-        <v>0.1156688842087241</v>
+        <v>0.3396908745725183</v>
       </c>
       <c r="Q8">
-        <v>0.07038814495288888</v>
+        <v>1.152919921965</v>
       </c>
       <c r="R8">
-        <v>0.6334933045759999</v>
+        <v>10.376279297685</v>
       </c>
       <c r="S8">
-        <v>0.02369275560816023</v>
+        <v>0.2727202181870886</v>
       </c>
       <c r="T8">
-        <v>0.02369275560816023</v>
+        <v>0.2727202181870886</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -968,60 +974,60 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6104853333333333</v>
+        <v>2.302381666666667</v>
       </c>
       <c r="H9">
-        <v>1.831456</v>
+        <v>6.907145</v>
       </c>
       <c r="I9">
-        <v>0.2048325768009203</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="J9">
-        <v>0.2048325768009203</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.5007510000000001</v>
+        <v>0.4588233333333334</v>
       </c>
       <c r="N9">
-        <v>1.502253</v>
+        <v>1.37647</v>
       </c>
       <c r="O9">
-        <v>0.5023588833325865</v>
+        <v>0.3112487031963553</v>
       </c>
       <c r="P9">
-        <v>0.5023588833325865</v>
+        <v>0.3112487031963553</v>
       </c>
       <c r="Q9">
-        <v>0.305701141152</v>
+        <v>1.056386430905556</v>
       </c>
       <c r="R9">
-        <v>2.751310270368</v>
+        <v>9.50747787815</v>
       </c>
       <c r="S9">
-        <v>0.1028994645518466</v>
+        <v>0.2498854711742841</v>
       </c>
       <c r="T9">
-        <v>0.1028994645518466</v>
+        <v>0.2498854711742841</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1030,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6104853333333333</v>
+        <v>2.302381666666667</v>
       </c>
       <c r="H10">
-        <v>1.831456</v>
+        <v>6.907145</v>
       </c>
       <c r="I10">
-        <v>0.2048325768009203</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="J10">
-        <v>0.2048325768009203</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1054,1020 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3807496666666667</v>
+        <v>0.4048450000000001</v>
       </c>
       <c r="N10">
-        <v>1.142249</v>
+        <v>1.214535</v>
       </c>
       <c r="O10">
-        <v>0.3819722324586895</v>
+        <v>0.2746318072581207</v>
       </c>
       <c r="P10">
-        <v>0.3819722324586895</v>
+        <v>0.2746318072581207</v>
       </c>
       <c r="Q10">
-        <v>0.2324420871715556</v>
+        <v>0.9321077058416669</v>
       </c>
       <c r="R10">
-        <v>2.091978784544</v>
+        <v>8.388969352575002</v>
       </c>
       <c r="S10">
-        <v>0.0782403566409135</v>
+        <v>0.2204876609970861</v>
       </c>
       <c r="T10">
-        <v>0.0782403566409135</v>
+        <v>0.2204876609970861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.302381666666667</v>
+      </c>
+      <c r="H11">
+        <v>6.907145</v>
+      </c>
+      <c r="I11">
+        <v>0.8028482323238487</v>
+      </c>
+      <c r="J11">
+        <v>0.8028482323238487</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.034576</v>
+      </c>
+      <c r="N11">
+        <v>0.103728</v>
+      </c>
+      <c r="O11">
+        <v>0.02345507383753481</v>
+      </c>
+      <c r="P11">
+        <v>0.02345507383753481</v>
+      </c>
+      <c r="Q11">
+        <v>0.07960714850666667</v>
+      </c>
+      <c r="R11">
+        <v>0.71646433656</v>
+      </c>
+      <c r="S11">
+        <v>0.01883086456949018</v>
+      </c>
+      <c r="T11">
+        <v>0.01883086456949017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02759</v>
+      </c>
+      <c r="H12">
+        <v>0.08277</v>
+      </c>
+      <c r="I12">
+        <v>0.009620725812103981</v>
+      </c>
+      <c r="J12">
+        <v>0.009620725812103981</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.075142</v>
+      </c>
+      <c r="N12">
+        <v>0.225426</v>
+      </c>
+      <c r="O12">
+        <v>0.05097354113547087</v>
+      </c>
+      <c r="P12">
+        <v>0.05097354113547086</v>
+      </c>
+      <c r="Q12">
+        <v>0.00207316778</v>
+      </c>
+      <c r="R12">
+        <v>0.01865851002</v>
+      </c>
+      <c r="S12">
+        <v>0.0004904024629363686</v>
+      </c>
+      <c r="T12">
+        <v>0.0004904024629363686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02759</v>
+      </c>
+      <c r="H13">
+        <v>0.08277</v>
+      </c>
+      <c r="I13">
+        <v>0.009620725812103981</v>
+      </c>
+      <c r="J13">
+        <v>0.009620725812103981</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5007510000000001</v>
+      </c>
+      <c r="N13">
+        <v>1.502253</v>
+      </c>
+      <c r="O13">
+        <v>0.3396908745725183</v>
+      </c>
+      <c r="P13">
+        <v>0.3396908745725183</v>
+      </c>
+      <c r="Q13">
+        <v>0.01381572009</v>
+      </c>
+      <c r="R13">
+        <v>0.12434148081</v>
+      </c>
+      <c r="S13">
+        <v>0.003268072765136003</v>
+      </c>
+      <c r="T13">
+        <v>0.003268072765136003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02759</v>
+      </c>
+      <c r="H14">
+        <v>0.08277</v>
+      </c>
+      <c r="I14">
+        <v>0.009620725812103981</v>
+      </c>
+      <c r="J14">
+        <v>0.009620725812103981</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.4588233333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.37647</v>
+      </c>
+      <c r="O14">
+        <v>0.3112487031963553</v>
+      </c>
+      <c r="P14">
+        <v>0.3112487031963553</v>
+      </c>
+      <c r="Q14">
+        <v>0.01265893576666667</v>
+      </c>
+      <c r="R14">
+        <v>0.1139304219</v>
+      </c>
+      <c r="S14">
+        <v>0.002994438432825066</v>
+      </c>
+      <c r="T14">
+        <v>0.002994438432825066</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02759</v>
+      </c>
+      <c r="H15">
+        <v>0.08277</v>
+      </c>
+      <c r="I15">
+        <v>0.009620725812103981</v>
+      </c>
+      <c r="J15">
+        <v>0.009620725812103981</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4048450000000001</v>
+      </c>
+      <c r="N15">
+        <v>1.214535</v>
+      </c>
+      <c r="O15">
+        <v>0.2746318072581207</v>
+      </c>
+      <c r="P15">
+        <v>0.2746318072581207</v>
+      </c>
+      <c r="Q15">
+        <v>0.01116967355</v>
+      </c>
+      <c r="R15">
+        <v>0.10052706195</v>
+      </c>
+      <c r="S15">
+        <v>0.002642157316912967</v>
+      </c>
+      <c r="T15">
+        <v>0.002642157316912967</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02759</v>
+      </c>
+      <c r="H16">
+        <v>0.08277</v>
+      </c>
+      <c r="I16">
+        <v>0.009620725812103981</v>
+      </c>
+      <c r="J16">
+        <v>0.009620725812103981</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.034576</v>
+      </c>
+      <c r="N16">
+        <v>0.103728</v>
+      </c>
+      <c r="O16">
+        <v>0.02345507383753481</v>
+      </c>
+      <c r="P16">
+        <v>0.02345507383753481</v>
+      </c>
+      <c r="Q16">
+        <v>0.0009539518400000001</v>
+      </c>
+      <c r="R16">
+        <v>0.008585566559999999</v>
+      </c>
+      <c r="S16">
+        <v>0.0002256548342935759</v>
+      </c>
+      <c r="T16">
+        <v>0.0002256548342935759</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4367126666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.310138</v>
+      </c>
+      <c r="I17">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="J17">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.075142</v>
+      </c>
+      <c r="N17">
+        <v>0.225426</v>
+      </c>
+      <c r="O17">
+        <v>0.05097354113547087</v>
+      </c>
+      <c r="P17">
+        <v>0.05097354113547086</v>
+      </c>
+      <c r="Q17">
+        <v>0.03281546319866667</v>
+      </c>
+      <c r="R17">
+        <v>0.295339168788</v>
+      </c>
+      <c r="S17">
+        <v>0.007762412733919635</v>
+      </c>
+      <c r="T17">
+        <v>0.007762412733919634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4367126666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.310138</v>
+      </c>
+      <c r="I18">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="J18">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.5007510000000001</v>
+      </c>
+      <c r="N18">
+        <v>1.502253</v>
+      </c>
+      <c r="O18">
+        <v>0.3396908745725183</v>
+      </c>
+      <c r="P18">
+        <v>0.3396908745725183</v>
+      </c>
+      <c r="Q18">
+        <v>0.218684304546</v>
+      </c>
+      <c r="R18">
+        <v>1.968158740914</v>
+      </c>
+      <c r="S18">
+        <v>0.05172920522374958</v>
+      </c>
+      <c r="T18">
+        <v>0.05172920522374958</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4367126666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.310138</v>
+      </c>
+      <c r="I19">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="J19">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.4588233333333334</v>
+      </c>
+      <c r="N19">
+        <v>1.37647</v>
+      </c>
+      <c r="O19">
+        <v>0.3112487031963553</v>
+      </c>
+      <c r="P19">
+        <v>0.3112487031963553</v>
+      </c>
+      <c r="Q19">
+        <v>0.2003739614288889</v>
+      </c>
+      <c r="R19">
+        <v>1.80336565286</v>
+      </c>
+      <c r="S19">
+        <v>0.04739794103545447</v>
+      </c>
+      <c r="T19">
+        <v>0.04739794103545447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4367126666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.310138</v>
+      </c>
+      <c r="I20">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="J20">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.4048450000000001</v>
+      </c>
+      <c r="N20">
+        <v>1.214535</v>
+      </c>
+      <c r="O20">
+        <v>0.2746318072581207</v>
+      </c>
+      <c r="P20">
+        <v>0.2746318072581207</v>
+      </c>
+      <c r="Q20">
+        <v>0.1768009395366667</v>
+      </c>
+      <c r="R20">
+        <v>1.59120845583</v>
+      </c>
+      <c r="S20">
+        <v>0.04182180382826774</v>
+      </c>
+      <c r="T20">
+        <v>0.04182180382826774</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4367126666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.310138</v>
+      </c>
+      <c r="I21">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="J21">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.034576</v>
+      </c>
+      <c r="N21">
+        <v>0.103728</v>
+      </c>
+      <c r="O21">
+        <v>0.02345507383753481</v>
+      </c>
+      <c r="P21">
+        <v>0.02345507383753481</v>
+      </c>
+      <c r="Q21">
+        <v>0.01509977716266667</v>
+      </c>
+      <c r="R21">
+        <v>0.135897994464</v>
+      </c>
+      <c r="S21">
+        <v>0.003571813136302006</v>
+      </c>
+      <c r="T21">
+        <v>0.003571813136302005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.03087866666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.092636</v>
+      </c>
+      <c r="I22">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="J22">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.075142</v>
+      </c>
+      <c r="N22">
+        <v>0.225426</v>
+      </c>
+      <c r="O22">
+        <v>0.05097354113547087</v>
+      </c>
+      <c r="P22">
+        <v>0.05097354113547086</v>
+      </c>
+      <c r="Q22">
+        <v>0.002320284770666666</v>
+      </c>
+      <c r="R22">
+        <v>0.020882562936</v>
+      </c>
+      <c r="S22">
+        <v>0.0005488573463401407</v>
+      </c>
+      <c r="T22">
+        <v>0.0005488573463401406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.03087866666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.092636</v>
+      </c>
+      <c r="I23">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="J23">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.5007510000000001</v>
+      </c>
+      <c r="N23">
+        <v>1.502253</v>
+      </c>
+      <c r="O23">
+        <v>0.3396908745725183</v>
+      </c>
+      <c r="P23">
+        <v>0.3396908745725183</v>
+      </c>
+      <c r="Q23">
+        <v>0.015462523212</v>
+      </c>
+      <c r="R23">
+        <v>0.139162708908</v>
+      </c>
+      <c r="S23">
+        <v>0.00365761977372404</v>
+      </c>
+      <c r="T23">
+        <v>0.00365761977372404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.03087866666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.092636</v>
+      </c>
+      <c r="I24">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="J24">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.4588233333333334</v>
+      </c>
+      <c r="N24">
+        <v>1.37647</v>
+      </c>
+      <c r="O24">
+        <v>0.3112487031963553</v>
+      </c>
+      <c r="P24">
+        <v>0.3112487031963553</v>
+      </c>
+      <c r="Q24">
+        <v>0.01416785276888889</v>
+      </c>
+      <c r="R24">
+        <v>0.12751067492</v>
+      </c>
+      <c r="S24">
+        <v>0.00335136883729833</v>
+      </c>
+      <c r="T24">
+        <v>0.00335136883729833</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.03087866666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.092636</v>
+      </c>
+      <c r="I25">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="J25">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4048450000000001</v>
+      </c>
+      <c r="N25">
+        <v>1.214535</v>
+      </c>
+      <c r="O25">
+        <v>0.2746318072581207</v>
+      </c>
+      <c r="P25">
+        <v>0.2746318072581207</v>
+      </c>
+      <c r="Q25">
+        <v>0.01250107380666667</v>
+      </c>
+      <c r="R25">
+        <v>0.11250966426</v>
+      </c>
+      <c r="S25">
+        <v>0.002957096595500177</v>
+      </c>
+      <c r="T25">
+        <v>0.002957096595500177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.03087866666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.092636</v>
+      </c>
+      <c r="I26">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="J26">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.034576</v>
+      </c>
+      <c r="N26">
+        <v>0.103728</v>
+      </c>
+      <c r="O26">
+        <v>0.02345507383753481</v>
+      </c>
+      <c r="P26">
+        <v>0.02345507383753481</v>
+      </c>
+      <c r="Q26">
+        <v>0.001067660778666667</v>
+      </c>
+      <c r="R26">
+        <v>0.009608947008</v>
+      </c>
+      <c r="S26">
+        <v>0.0002525523889044304</v>
+      </c>
+      <c r="T26">
+        <v>0.0002525523889044303</v>
       </c>
     </row>
   </sheetData>
